--- a/SOTA/wwwroot/Reports/FinishedReports/Tip1/Rabota/Комплекснаяработа6класс17122020/ЧОУ СОШ Перспектива.xlsx
+++ b/SOTA/wwwroot/Reports/FinishedReports/Tip1/Rabota/Комплекснаяработа6класс17122020/ЧОУ СОШ Перспектива.xlsx
@@ -148,37 +148,37 @@
     <t>66</t>
   </si>
   <si>
+    <t xml:space="preserve">Колесникова  А.В.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Айрапетов  А.В.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Савченко  М.А.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лучкова  С.О.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Заргарян  К.К.</t>
   </si>
   <si>
-    <t xml:space="preserve">Айрапетов  А.В.</t>
+    <t xml:space="preserve">Колтыкова  Д.А.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ткаченко  М.М.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гринько  О.М.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рублевская  А.В.</t>
   </si>
   <si>
     <t xml:space="preserve">Черкашин  А.Р.</t>
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Колтыкова  Д.А.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гринько  О.М.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ткаченко  М.М.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Лучкова  С.О.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Колесникова  А.В.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Савченко  М.А.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рублевская  А.В.</t>
   </si>
 </sst>
 </file>
@@ -991,13 +991,13 @@
         <v>42</v>
       </c>
       <c r="E12" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" s="21">
         <v>0</v>
       </c>
       <c r="G12" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="21">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>2</v>
       </c>
       <c r="L12" s="21">
-        <v>33.33</v>
+        <v>50</v>
       </c>
       <c r="M12" s="21">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -1073,13 +1073,13 @@
         <v>44</v>
       </c>
       <c r="E14" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" s="21">
         <v>0</v>
       </c>
       <c r="G14" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="21">
         <v>1</v>
@@ -1087,17 +1087,17 @@
       <c r="I14" s="21">
         <v>1</v>
       </c>
-      <c r="J14" s="21" t="s">
-        <v>45</v>
+      <c r="J14" s="21">
+        <v>1</v>
       </c>
       <c r="K14" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14" s="21">
         <v>66.67</v>
       </c>
       <c r="M14" s="21">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1111,19 +1111,19 @@
         <v>41</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E15" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G15" s="21">
         <v>1</v>
       </c>
       <c r="H15" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="21">
         <v>1</v>
@@ -1135,10 +1135,10 @@
         <v>2</v>
       </c>
       <c r="L15" s="21">
-        <v>83.33</v>
+        <v>50</v>
       </c>
       <c r="M15" s="21">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -1152,19 +1152,19 @@
         <v>41</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E16" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" s="21">
         <v>0</v>
       </c>
       <c r="G16" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="21">
         <v>1</v>
@@ -1173,13 +1173,13 @@
         <v>0</v>
       </c>
       <c r="K16" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16" s="21">
-        <v>66.67</v>
+        <v>33.33</v>
       </c>
       <c r="M16" s="21">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -1193,34 +1193,34 @@
         <v>41</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E17" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" s="21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G17" s="21">
         <v>1</v>
       </c>
       <c r="H17" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="21">
         <v>1</v>
       </c>
       <c r="J17" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="21">
         <v>2</v>
       </c>
       <c r="L17" s="21">
-        <v>66.67</v>
+        <v>83.33</v>
       </c>
       <c r="M17" s="21">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -1234,7 +1234,7 @@
         <v>41</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E18" s="21">
         <v>2</v>
@@ -1252,16 +1252,16 @@
         <v>1</v>
       </c>
       <c r="J18" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="21">
         <v>2</v>
       </c>
       <c r="L18" s="21">
-        <v>50</v>
+        <v>66.67</v>
       </c>
       <c r="M18" s="21">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1275,7 +1275,7 @@
         <v>41</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E19" s="21">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="21">
         <v>1</v>
@@ -1296,10 +1296,10 @@
         <v>0</v>
       </c>
       <c r="K19" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19" s="21">
-        <v>50</v>
+        <v>66.67</v>
       </c>
       <c r="M19" s="21">
         <v>4</v>
@@ -1316,16 +1316,16 @@
         <v>41</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E20" s="21">
         <v>1</v>
       </c>
       <c r="F20" s="21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G20" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="21">
         <v>1</v>
@@ -1340,10 +1340,10 @@
         <v>2</v>
       </c>
       <c r="L20" s="21">
-        <v>66.67</v>
+        <v>100</v>
       </c>
       <c r="M20" s="21">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -1357,34 +1357,34 @@
         <v>41</v>
       </c>
       <c r="D21" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="21">
+        <v>2</v>
+      </c>
+      <c r="F21" s="21">
+        <v>0</v>
+      </c>
+      <c r="G21" s="21">
+        <v>1</v>
+      </c>
+      <c r="H21" s="21">
+        <v>1</v>
+      </c>
+      <c r="I21" s="21">
+        <v>1</v>
+      </c>
+      <c r="J21" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="21">
-        <v>1</v>
-      </c>
-      <c r="F21" s="21">
-        <v>2</v>
-      </c>
-      <c r="G21" s="21">
-        <v>1</v>
-      </c>
-      <c r="H21" s="21">
-        <v>1</v>
-      </c>
-      <c r="I21" s="21">
-        <v>1</v>
-      </c>
-      <c r="J21" s="21">
-        <v>1</v>
-      </c>
       <c r="K21" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21" s="21">
-        <v>100</v>
+        <v>66.67</v>
       </c>
       <c r="M21" s="21">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">

--- a/SOTA/wwwroot/Reports/FinishedReports/Tip1/Rabota/Комплекснаяработа6класс17122020/ЧОУ СОШ Перспектива.xlsx
+++ b/SOTA/wwwroot/Reports/FinishedReports/Tip1/Rabota/Комплекснаяработа6класс17122020/ЧОУ СОШ Перспектива.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20368"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50027C89-4DE8-43FE-81D6-DB8E9B289B91}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="7440" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Протокол" sheetId="1" r:id="rId1"/>
     <sheet name="Аналитика" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>№</t>
   </si>
@@ -52,42 +53,30 @@
     <t>Данный элемент содержания усвоен на крайне низком уровне.Требуется серьёзная коррекция.</t>
   </si>
   <si>
-    <t>от</t>
-  </si>
-  <si>
-    <t>до</t>
-  </si>
-  <si>
-    <t>Заключение</t>
-  </si>
-  <si>
     <t>Использовать информации из текста для различных целей. Применять информацию из текста для решения учебно-практической задачи.</t>
   </si>
   <si>
     <t>Данный элемент содержания усвоен на хорошем уровне. Важно поддерживать этот уровень у сильных учащихся и продолжать подготовку слабых учащихся</t>
   </si>
   <si>
-    <t>Данный элемент содержания усвоен на крайне низком уровне. Требуется серьёзная коррекция.</t>
-  </si>
-  <si>
     <t>Извлекать информацию, представленную в тексте; использовать зависимость величин для ответа на поставленный вопрос.</t>
   </si>
   <si>
     <t>Данный элемент содержания усвоен на приемлемом уровне. Возможно, необходимо обратить внимание на категорию учащихся, затрудняющихся с данным заданием.</t>
   </si>
   <si>
+    <t>Извлекать информацию из текста и таблицы для ответа на поставленный вопрос.</t>
+  </si>
+  <si>
+    <t>Данный элемент содержания усвоен на высоком уровне. Важно зафиксировать данный уровень. Обратить внимание на причины и условия обеспечившие высокий результат.</t>
+  </si>
+  <si>
+    <t>Сформированность представлений о географических объектах, процессах, явлениях, закономерностях; владение понятийным аппаратом географии (на материале предмета «География»).</t>
+  </si>
+  <si>
     <t>Данный элемент содержания усвоен на низком уровне. Требуется коррекция.</t>
   </si>
   <si>
-    <t>Извлекать информацию из текста и таблицы для ответа на поставленный вопрос.</t>
-  </si>
-  <si>
-    <t>Данный элемент содержания усвоен на высоком уровне. Важно зафиксировать данный уровень. Обратить внимание на причины и условия обеспечившие высокий результат.</t>
-  </si>
-  <si>
-    <t>Сформированность представлений о географических объектах, процессах, явлениях, закономерностях; владение понятийным аппаратом географии (на материале предмета «География»).</t>
-  </si>
-  <si>
     <t>Использовать знаково-символические (и художественно-графические) средства и модели при решении учебно-практических задач (на материале предмета «Биология»).</t>
   </si>
   <si>
@@ -130,7 +119,7 @@
     <t>Вариант</t>
   </si>
   <si>
-    <t>Номер задания</t>
+    <t>№ задания</t>
   </si>
   <si>
     <t>% верно выполненных заданий от общего количества заданий в тесте</t>
@@ -184,9 +173,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,6 +214,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -311,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
@@ -319,31 +314,6 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -358,22 +328,45 @@
     <xf numFmtId="49" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="49" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <b/>
@@ -783,23 +776,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="1" width="52.85546875" customWidth="1" style="2"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1" style="2"/>
-    <col min="4" max="4" width="23.140625" customWidth="1" style="2"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1" style="2"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1" style="2"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1" style="2"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1" style="2"/>
+    <col min="7" max="7" width="12" customWidth="1" style="2"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -821,10 +818,10 @@
     </row>
     <row r="3" ht="15.75">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -835,10 +832,10 @@
     </row>
     <row r="4" ht="15.75">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -849,7 +846,7 @@
     </row>
     <row r="5" ht="15.75">
       <c r="A5" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B5" s="14">
         <v>44182</v>
@@ -863,7 +860,7 @@
     </row>
     <row r="6" ht="15.75">
       <c r="A6" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B6" s="11">
         <v>2</v>
@@ -877,7 +874,7 @@
     </row>
     <row r="7" ht="15.75">
       <c r="A7" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B7" s="11">
         <v>10</v>
@@ -910,52 +907,52 @@
       <c r="H9" s="4"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="F10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="G10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="M10" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="11" ht="15.75">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
       <c r="F11" s="5">
         <v>1</v>
       </c>
@@ -974,459 +971,459 @@
       <c r="K11" s="5">
         <v>6</v>
       </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="10"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="18"/>
     </row>
     <row r="12">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="23">
+        <v>2</v>
+      </c>
+      <c r="F12" s="23">
+        <v>0</v>
+      </c>
+      <c r="G12" s="23">
+        <v>1</v>
+      </c>
+      <c r="H12" s="23">
+        <v>0</v>
+      </c>
+      <c r="I12" s="23">
+        <v>1</v>
+      </c>
+      <c r="J12" s="23">
+        <v>0</v>
+      </c>
+      <c r="K12" s="23">
+        <v>2</v>
+      </c>
+      <c r="L12" s="23">
+        <v>50</v>
+      </c>
+      <c r="M12" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="E13" s="23">
+        <v>1</v>
+      </c>
+      <c r="F13" s="23">
+        <v>0</v>
+      </c>
+      <c r="G13" s="23">
+        <v>0</v>
+      </c>
+      <c r="H13" s="23">
+        <v>0</v>
+      </c>
+      <c r="I13" s="23">
+        <v>0</v>
+      </c>
+      <c r="J13" s="23">
+        <v>1</v>
+      </c>
+      <c r="K13" s="23">
+        <v>2</v>
+      </c>
+      <c r="L13" s="23">
+        <v>33.33</v>
+      </c>
+      <c r="M13" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="E14" s="23">
+        <v>1</v>
+      </c>
+      <c r="F14" s="23">
+        <v>0</v>
+      </c>
+      <c r="G14" s="23">
+        <v>0</v>
+      </c>
+      <c r="H14" s="23">
+        <v>1</v>
+      </c>
+      <c r="I14" s="23">
+        <v>1</v>
+      </c>
+      <c r="J14" s="23">
+        <v>1</v>
+      </c>
+      <c r="K14" s="23">
+        <v>2</v>
+      </c>
+      <c r="L14" s="23">
+        <v>66.67</v>
+      </c>
+      <c r="M14" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="E15" s="23">
+        <v>2</v>
+      </c>
+      <c r="F15" s="23">
+        <v>0</v>
+      </c>
+      <c r="G15" s="23">
+        <v>1</v>
+      </c>
+      <c r="H15" s="23">
+        <v>0</v>
+      </c>
+      <c r="I15" s="23">
+        <v>1</v>
+      </c>
+      <c r="J15" s="23">
+        <v>0</v>
+      </c>
+      <c r="K15" s="23">
+        <v>2</v>
+      </c>
+      <c r="L15" s="23">
+        <v>50</v>
+      </c>
+      <c r="M15" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="21">
-        <v>2</v>
-      </c>
-      <c r="F12" s="21">
-        <v>0</v>
-      </c>
-      <c r="G12" s="21">
-        <v>1</v>
-      </c>
-      <c r="H12" s="21">
-        <v>0</v>
-      </c>
-      <c r="I12" s="21">
-        <v>1</v>
-      </c>
-      <c r="J12" s="21">
-        <v>0</v>
-      </c>
-      <c r="K12" s="21">
-        <v>2</v>
-      </c>
-      <c r="L12" s="21">
+      <c r="E16" s="23">
+        <v>1</v>
+      </c>
+      <c r="F16" s="23">
+        <v>0</v>
+      </c>
+      <c r="G16" s="23">
+        <v>0</v>
+      </c>
+      <c r="H16" s="23">
+        <v>0</v>
+      </c>
+      <c r="I16" s="23">
+        <v>1</v>
+      </c>
+      <c r="J16" s="23">
+        <v>0</v>
+      </c>
+      <c r="K16" s="23">
+        <v>2</v>
+      </c>
+      <c r="L16" s="23">
+        <v>33.33</v>
+      </c>
+      <c r="M16" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="23">
+        <v>1</v>
+      </c>
+      <c r="F17" s="23">
+        <v>2</v>
+      </c>
+      <c r="G17" s="23">
+        <v>1</v>
+      </c>
+      <c r="H17" s="23">
+        <v>1</v>
+      </c>
+      <c r="I17" s="23">
+        <v>1</v>
+      </c>
+      <c r="J17" s="23">
+        <v>0</v>
+      </c>
+      <c r="K17" s="23">
+        <v>2</v>
+      </c>
+      <c r="L17" s="23">
+        <v>83.33</v>
+      </c>
+      <c r="M17" s="23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="23">
+        <v>2</v>
+      </c>
+      <c r="F18" s="23">
+        <v>0</v>
+      </c>
+      <c r="G18" s="23">
+        <v>1</v>
+      </c>
+      <c r="H18" s="23">
+        <v>0</v>
+      </c>
+      <c r="I18" s="23">
+        <v>1</v>
+      </c>
+      <c r="J18" s="23">
+        <v>1</v>
+      </c>
+      <c r="K18" s="23">
+        <v>2</v>
+      </c>
+      <c r="L18" s="23">
+        <v>66.67</v>
+      </c>
+      <c r="M18" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="23">
+        <v>2</v>
+      </c>
+      <c r="F19" s="23">
+        <v>0</v>
+      </c>
+      <c r="G19" s="23">
+        <v>1</v>
+      </c>
+      <c r="H19" s="23">
+        <v>1</v>
+      </c>
+      <c r="I19" s="23">
+        <v>1</v>
+      </c>
+      <c r="J19" s="23">
+        <v>0</v>
+      </c>
+      <c r="K19" s="23">
+        <v>1</v>
+      </c>
+      <c r="L19" s="23">
+        <v>66.67</v>
+      </c>
+      <c r="M19" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="23">
+        <v>1</v>
+      </c>
+      <c r="F20" s="23">
+        <v>2</v>
+      </c>
+      <c r="G20" s="23">
+        <v>1</v>
+      </c>
+      <c r="H20" s="23">
+        <v>1</v>
+      </c>
+      <c r="I20" s="23">
+        <v>1</v>
+      </c>
+      <c r="J20" s="23">
+        <v>1</v>
+      </c>
+      <c r="K20" s="23">
+        <v>2</v>
+      </c>
+      <c r="L20" s="23">
+        <v>100</v>
+      </c>
+      <c r="M20" s="23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="23">
+        <v>2</v>
+      </c>
+      <c r="F21" s="23">
+        <v>0</v>
+      </c>
+      <c r="G21" s="23">
+        <v>1</v>
+      </c>
+      <c r="H21" s="23">
+        <v>1</v>
+      </c>
+      <c r="I21" s="23">
+        <v>1</v>
+      </c>
+      <c r="J21" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="K21" s="23">
+        <v>1</v>
+      </c>
+      <c r="L21" s="23">
+        <v>66.67</v>
+      </c>
+      <c r="M21" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23">
+        <v>20</v>
+      </c>
+      <c r="G22" s="23">
+        <v>70</v>
+      </c>
+      <c r="H22" s="23">
         <v>50</v>
       </c>
-      <c r="M12" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="21" t="s">
+      <c r="I22" s="23">
+        <v>90</v>
+      </c>
+      <c r="J22" s="23">
         <v>40</v>
       </c>
-      <c r="C13" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="21">
-        <v>1</v>
-      </c>
-      <c r="F13" s="21">
-        <v>0</v>
-      </c>
-      <c r="G13" s="21">
-        <v>0</v>
-      </c>
-      <c r="H13" s="21">
-        <v>0</v>
-      </c>
-      <c r="I13" s="21">
-        <v>0</v>
-      </c>
-      <c r="J13" s="21">
-        <v>1</v>
-      </c>
-      <c r="K13" s="21">
-        <v>2</v>
-      </c>
-      <c r="L13" s="21">
-        <v>33.33</v>
-      </c>
-      <c r="M13" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="21">
-        <v>1</v>
-      </c>
-      <c r="F14" s="21">
-        <v>0</v>
-      </c>
-      <c r="G14" s="21">
-        <v>0</v>
-      </c>
-      <c r="H14" s="21">
-        <v>1</v>
-      </c>
-      <c r="I14" s="21">
-        <v>1</v>
-      </c>
-      <c r="J14" s="21">
-        <v>1</v>
-      </c>
-      <c r="K14" s="21">
-        <v>2</v>
-      </c>
-      <c r="L14" s="21">
-        <v>66.67</v>
-      </c>
-      <c r="M14" s="21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="21">
-        <v>2</v>
-      </c>
-      <c r="F15" s="21">
-        <v>0</v>
-      </c>
-      <c r="G15" s="21">
-        <v>1</v>
-      </c>
-      <c r="H15" s="21">
-        <v>0</v>
-      </c>
-      <c r="I15" s="21">
-        <v>1</v>
-      </c>
-      <c r="J15" s="21">
-        <v>0</v>
-      </c>
-      <c r="K15" s="21">
-        <v>2</v>
-      </c>
-      <c r="L15" s="21">
-        <v>50</v>
-      </c>
-      <c r="M15" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="21">
-        <v>1</v>
-      </c>
-      <c r="F16" s="21">
-        <v>0</v>
-      </c>
-      <c r="G16" s="21">
-        <v>0</v>
-      </c>
-      <c r="H16" s="21">
-        <v>0</v>
-      </c>
-      <c r="I16" s="21">
-        <v>1</v>
-      </c>
-      <c r="J16" s="21">
-        <v>0</v>
-      </c>
-      <c r="K16" s="21">
-        <v>2</v>
-      </c>
-      <c r="L16" s="21">
-        <v>33.33</v>
-      </c>
-      <c r="M16" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="21">
-        <v>1</v>
-      </c>
-      <c r="F17" s="21">
-        <v>2</v>
-      </c>
-      <c r="G17" s="21">
-        <v>1</v>
-      </c>
-      <c r="H17" s="21">
-        <v>1</v>
-      </c>
-      <c r="I17" s="21">
-        <v>1</v>
-      </c>
-      <c r="J17" s="21">
-        <v>0</v>
-      </c>
-      <c r="K17" s="21">
-        <v>2</v>
-      </c>
-      <c r="L17" s="21">
-        <v>83.33</v>
-      </c>
-      <c r="M17" s="21">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="21">
-        <v>2</v>
-      </c>
-      <c r="F18" s="21">
-        <v>0</v>
-      </c>
-      <c r="G18" s="21">
-        <v>1</v>
-      </c>
-      <c r="H18" s="21">
-        <v>0</v>
-      </c>
-      <c r="I18" s="21">
-        <v>1</v>
-      </c>
-      <c r="J18" s="21">
-        <v>1</v>
-      </c>
-      <c r="K18" s="21">
-        <v>2</v>
-      </c>
-      <c r="L18" s="21">
-        <v>66.67</v>
-      </c>
-      <c r="M18" s="21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="21">
-        <v>2</v>
-      </c>
-      <c r="F19" s="21">
-        <v>0</v>
-      </c>
-      <c r="G19" s="21">
-        <v>1</v>
-      </c>
-      <c r="H19" s="21">
-        <v>1</v>
-      </c>
-      <c r="I19" s="21">
-        <v>1</v>
-      </c>
-      <c r="J19" s="21">
-        <v>0</v>
-      </c>
-      <c r="K19" s="21">
-        <v>1</v>
-      </c>
-      <c r="L19" s="21">
-        <v>66.67</v>
-      </c>
-      <c r="M19" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="21">
-        <v>1</v>
-      </c>
-      <c r="F20" s="21">
-        <v>2</v>
-      </c>
-      <c r="G20" s="21">
-        <v>1</v>
-      </c>
-      <c r="H20" s="21">
-        <v>1</v>
-      </c>
-      <c r="I20" s="21">
-        <v>1</v>
-      </c>
-      <c r="J20" s="21">
-        <v>1</v>
-      </c>
-      <c r="K20" s="21">
-        <v>2</v>
-      </c>
-      <c r="L20" s="21">
+      <c r="K22" s="23">
         <v>100</v>
       </c>
-      <c r="M20" s="21">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="21">
-        <v>2</v>
-      </c>
-      <c r="F21" s="21">
-        <v>0</v>
-      </c>
-      <c r="G21" s="21">
-        <v>1</v>
-      </c>
-      <c r="H21" s="21">
-        <v>1</v>
-      </c>
-      <c r="I21" s="21">
-        <v>1</v>
-      </c>
-      <c r="J21" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="K21" s="21">
-        <v>1</v>
-      </c>
-      <c r="L21" s="21">
-        <v>66.67</v>
-      </c>
-      <c r="M21" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21">
-        <v>20</v>
-      </c>
-      <c r="G22" s="21">
-        <v>70</v>
-      </c>
-      <c r="H22" s="21">
-        <v>50</v>
-      </c>
-      <c r="I22" s="21">
-        <v>90</v>
-      </c>
-      <c r="J22" s="21">
-        <v>40</v>
-      </c>
-      <c r="K22" s="21">
-        <v>100</v>
-      </c>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
     </row>
   </sheetData>
   <mergeCells>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
     <mergeCell ref="L10:L11"/>
     <mergeCell ref="M10:M11"/>
   </mergeCells>
@@ -1438,236 +1435,201 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="38.5703125" customWidth="1" style="2"/>
+    <col min="1" max="1" width="9.140625" customWidth="1" style="19"/>
+    <col min="2" max="2" width="38.5703125" customWidth="1" style="19"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1" style="19"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1" style="19"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1" style="19"/>
+    <col min="6" max="6" width="24.140625" customWidth="1" style="19"/>
+    <col min="7" max="7" width="118.140625" customWidth="1" style="19"/>
+    <col min="8" max="16384" width="9.140625" customWidth="1" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" ht="81">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="16" t="s">
+    <row r="1" ht="27">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="31.5">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" ht="15.75">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="D2" s="20">
+        <v>2</v>
+      </c>
+      <c r="E2" s="20">
         <v>0.4</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="20">
         <v>20</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="9"/>
+    </row>
+    <row r="3" ht="15.75">
+      <c r="A3" s="20">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="C3" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="20">
+        <v>1</v>
+      </c>
+      <c r="E3" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="F3" s="20">
+        <v>70</v>
+      </c>
+      <c r="G3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="10"/>
+    </row>
+    <row r="4" ht="15.75">
+      <c r="A4" s="20">
+        <v>3</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" ht="15.75">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C4" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="20">
+        <v>1</v>
+      </c>
+      <c r="E4" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="20">
+        <v>50</v>
+      </c>
+      <c r="G4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="10"/>
+    </row>
+    <row r="5" ht="15.75">
+      <c r="A5" s="20">
+        <v>4</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="F3" s="1">
-        <v>70</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="19">
-        <v>0</v>
-      </c>
-      <c r="K3" s="19">
-        <f>J4-0.01</f>
-        <v>0.29</v>
-      </c>
-      <c r="L3" s="20" t="s">
+      <c r="D5" s="20">
+        <v>1</v>
+      </c>
+      <c r="E5" s="20">
+        <v>0.9</v>
+      </c>
+      <c r="F5" s="20">
+        <v>90</v>
+      </c>
+      <c r="G5" s="20" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" ht="15.75">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="10"/>
+    </row>
+    <row r="6" ht="15.75">
+      <c r="A6" s="20">
+        <v>5</v>
+      </c>
+      <c r="B6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C6" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F4" s="1">
-        <v>50</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="D6" s="20">
+        <v>1</v>
+      </c>
+      <c r="E6" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="F6" s="20">
+        <v>40</v>
+      </c>
+      <c r="G6" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="19">
-        <v>0.3</v>
-      </c>
-      <c r="K4" s="19">
-        <f ref="K4:K6" t="shared" si="0">J5-0.01</f>
-        <v>0.49</v>
-      </c>
-      <c r="L4" s="20" t="s">
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="10"/>
+    </row>
+    <row r="7" ht="15.75">
+      <c r="A7" s="20">
+        <v>6</v>
+      </c>
+      <c r="B7" s="20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" ht="15.75">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="C7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="F5" s="1">
-        <v>90</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="K5" s="19">
-        <f t="shared" si="0"/>
-        <v>0.69</v>
-      </c>
-      <c r="L5" s="20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="F6" s="1">
-        <v>40</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="19">
-        <v>0.7</v>
-      </c>
-      <c r="K6" s="19">
-        <f t="shared" si="0"/>
-        <v>0.89</v>
-      </c>
-      <c r="L6" s="20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="D7" s="20">
+        <v>2</v>
+      </c>
+      <c r="E7" s="20">
         <v>1.8</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="20">
         <v>100</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="19">
-        <v>0.9</v>
-      </c>
-      <c r="K7" s="19">
-        <v>1</v>
-      </c>
-      <c r="L7" s="20" t="s">
-        <v>20</v>
-      </c>
+      <c r="G7" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="10"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J3:L4">
@@ -1676,6 +1638,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>